--- a/obj/results/article/waved/wave_deformation_report_2.xlsx
+++ b/obj/results/article/waved/wave_deformation_report_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python\PolypointTransformationsHelpers\obj\results\article\waved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1BAECB-358C-4B26-96C6-68B1E8DA4115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2766FD-D68B-4277-8B92-78A224184214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1812" yWindow="1812" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="912" yWindow="2988" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wave deformation report 2" sheetId="1" r:id="rId1"/>
@@ -20,24 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Params</t>
   </si>
   <si>
-    <t>MSE pp_sidor_tetr_13v_waved</t>
+    <t>MSE pp_sidor_cube_1_waved</t>
   </si>
   <si>
-    <t>MSE pp_ort_tetr_13v_waved</t>
+    <t>MSE pp_ort_cube_1_waved</t>
   </si>
   <si>
-    <t>MSE pp_tetr_13v_waved</t>
+    <t>MSE pp_cube_1_waved</t>
+  </si>
+  <si>
+    <t>MSE rbf_cube_1_waved</t>
   </si>
   <si>
     <t>a_10_p_10</t>
-  </si>
-  <si>
-    <t>a_1_p_10</t>
   </si>
   <si>
     <t>a_20_p_10</t>
@@ -53,6 +53,21 @@
   </si>
   <si>
     <t>a_60_p_10</t>
+  </si>
+  <si>
+    <t>a_70_p_10</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -121,113 +136,366 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="5.8928258967629044E-2"/>
-          <c:y val="0.19486111111111112"/>
-          <c:w val="0.8902939632545932"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE pp_sidor_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wave deformation report 2'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DA15-4C75-B2FB-AD9D505C95CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE pp_ort_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'wave deformation report 2'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>2.58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47</c:v>
+                  <c:v>5.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97</c:v>
+                  <c:v>7.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>10.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.08</c:v>
+                  <c:v>12.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7</c:v>
+                  <c:v>15.48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.39</c:v>
+                  <c:v>18.059999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-49F1-4033-8A75-B46F18BED79F}"/>
+              <c16:uniqueId val="{00000001-DA15-4C75-B2FB-AD9D505C95CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE pp_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wave deformation report 2'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DA15-4C75-B2FB-AD9D505C95CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE rbf_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wave deformation report 2'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA15-4C75-B2FB-AD9D505C95CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -239,30 +507,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="832541952"/>
-        <c:axId val="832526560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="832541952"/>
+        <c:gapWidth val="182"/>
+        <c:axId val="593725567"/>
+        <c:axId val="593722239"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="593725567"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -271,8 +527,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -299,17 +555,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="832526560"/>
+        <c:crossAx val="593722239"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="832526560"/>
+        <c:axId val="593722239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -330,11 +589,529 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="593725567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE pp_sidor_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wave deformation report 2'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6BF8-4446-BC58-0D66A6B72B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE pp_ort_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wave deformation report 2'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6BF8-4446-BC58-0D66A6B72B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE pp_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wave deformation report 2'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.059999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6BF8-4446-BC58-0D66A6B72B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSE rbf_cube_1_waved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'wave deformation report 2'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>a_10_p_10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>a_20_p_10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>a_30_p_10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>a_40_p_10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>a_50_p_10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>a_60_p_10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>a_70_p_10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'wave deformation report 2'!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6BF8-4446-BC58-0D66A6B72B98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="764090927"/>
+        <c:axId val="764081775"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="764090927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -361,9 +1138,68 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="832541952"/>
+        <c:crossAx val="764081775"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="764081775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="764090927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -373,8 +1209,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -450,8 +1324,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -478,8 +1392,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -580,7 +1494,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -612,10 +1526,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -936,17 +1850,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -971,22 +2390,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>754380</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E593A026-2956-41B8-878E-A99438C69AC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CD7BAEB-0957-4BC0-A9DC-196BC20EDC06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -999,6 +2418,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8CEE1BC-5216-4F74-BBAE-3F2CD2872DD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1292,21 +2747,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1319,138 +2775,131 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.02</v>
+        <v>2.58</v>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>2.58</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>2.58</v>
+      </c>
+      <c r="E2">
+        <v>2.52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>5.16</v>
       </c>
       <c r="C3">
-        <v>0.47</v>
+        <v>5.16</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>5.16</v>
+      </c>
+      <c r="E3">
+        <v>5.04</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.4</v>
+        <v>7.74</v>
       </c>
       <c r="C4">
-        <v>0.97</v>
+        <v>7.74</v>
       </c>
       <c r="D4">
-        <v>0.82</v>
+        <v>7.74</v>
+      </c>
+      <c r="E4">
+        <v>7.56</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.62</v>
+        <v>10.32</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>10.32</v>
       </c>
       <c r="D5">
-        <v>1.28</v>
+        <v>10.32</v>
+      </c>
+      <c r="E5">
+        <v>10.07</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.86</v>
+        <v>12.9</v>
       </c>
       <c r="C6">
-        <v>2.08</v>
+        <v>12.9</v>
       </c>
       <c r="D6">
-        <v>1.79</v>
+        <v>12.9</v>
+      </c>
+      <c r="E6">
+        <v>12.59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>1.1200000000000001</v>
+        <v>15.48</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>15.48</v>
       </c>
       <c r="D7">
-        <v>2.34</v>
+        <v>15.48</v>
+      </c>
+      <c r="E7">
+        <v>15.11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1.4</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="C8">
-        <v>3.39</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="D8">
-        <v>2.94</v>
+        <v>18.059999999999999</v>
+      </c>
+      <c r="E8">
+        <v>17.63</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:D8">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{00F80208-DC0A-4B72-AE6D-25A1DD42E7A7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{00F80208-DC0A-4B72-AE6D-25A1DD42E7A7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B2:D8</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>